--- a/biology/Botanique/Distichochlamys/Distichochlamys.xlsx
+++ b/biology/Botanique/Distichochlamys/Distichochlamys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Distichochlamys est un genre de plantes de la famille des Zingiberaceae découvert au Viet Nam et décrit par M.F.Newman pour la première fois en 1995. Jusqu'en 2007, Distichochlamys peut être considéré comme un genre de plante spécifique du Viet Nam. On en connaît actuellement trois espèces découvertes entre 1995 et 2003 mais ce nombre devrait augmenter. Distichochlamys est proche du genre Scaphochlamys.
 </t>
@@ -511,13 +523,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (17 juil. 2010)[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (17 juil. 2010)
 Distichochlamys citrea M.F.Newman (1995)
 Distichochlamys orlowii K.Larsen &amp; M.F.Newman (2001)
 Distichochlamys rubrostriata W.J.Kress &amp; Rehse (2003)
-Selon NCBI  (17 juil. 2010)[2]
+Selon NCBI  (17 juil. 2010)
 Distichochlamys citrea
 Distichochlamys sp. Kress 01-6848</t>
         </is>
